--- a/test_files/csv_test_files/doubtfire_users.xlsx
+++ b/test_files/csv_test_files/doubtfire_users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10310"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keshavkatarya/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caina/Documents/Code/GitHub/doubtfire-api/test_files/csv_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1432E4F-8559-F44D-89FA-E83577509B26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57F6C10-016B-E34B-9B6B-4AB50229C405}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16520"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="doubtfire_users" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>email</t>
   </si>
@@ -56,13 +56,16 @@
   </si>
   <si>
     <t>test_case</t>
+  </si>
+  <si>
+    <t>campus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -906,14 +909,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -935,8 +940,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,7 +966,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
